--- a/inputs/AddictO_Human-being_Defs.xlsx
+++ b/inputs/AddictO_Human-being_Defs.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill/>
     </fill>
@@ -39,7 +39,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="007fffd4"/>
+        <fgColor rgb="002f4f4f"/>
       </patternFill>
     </fill>
     <fill>
@@ -50,6 +50,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00ffe4b5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="007fffd4"/>
       </patternFill>
     </fill>
   </fills>
@@ -65,12 +70,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -587,7 +593,7 @@
       </c>
       <c r="Q2" s="2" t="inlineStr">
         <is>
-          <t>Published</t>
+          <t>Obsolete</t>
         </is>
       </c>
       <c r="R2" s="2" t="inlineStr"/>
@@ -25353,84 +25359,84 @@
       <c r="R634" s="3" t="inlineStr"/>
     </row>
     <row r="635">
-      <c r="A635" s="2" t="inlineStr"/>
-      <c r="B635" s="2" t="inlineStr">
+      <c r="A635" s="5" t="inlineStr"/>
+      <c r="B635" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">test addition </t>
         </is>
       </c>
-      <c r="C635" s="2" t="inlineStr">
+      <c r="C635" s="5" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D635" s="2" t="inlineStr">
+      <c r="D635" s="5" t="inlineStr">
         <is>
           <t>b</t>
         </is>
       </c>
-      <c r="E635" s="2" t="inlineStr">
+      <c r="E635" s="5" t="inlineStr">
         <is>
           <t>c</t>
         </is>
       </c>
-      <c r="F635" s="2" t="inlineStr">
+      <c r="F635" s="5" t="inlineStr">
         <is>
           <t>d</t>
         </is>
       </c>
-      <c r="G635" s="2" t="inlineStr">
+      <c r="G635" s="5" t="inlineStr">
         <is>
           <t>e</t>
         </is>
       </c>
-      <c r="H635" s="2" t="inlineStr">
+      <c r="H635" s="5" t="inlineStr">
         <is>
           <t>f</t>
         </is>
       </c>
-      <c r="I635" s="2" t="inlineStr">
+      <c r="I635" s="5" t="inlineStr">
         <is>
           <t>g</t>
         </is>
       </c>
-      <c r="J635" s="2" t="inlineStr">
+      <c r="J635" s="5" t="inlineStr">
         <is>
           <t>h</t>
         </is>
       </c>
-      <c r="K635" s="2" t="inlineStr">
+      <c r="K635" s="5" t="inlineStr">
         <is>
           <t>i</t>
         </is>
       </c>
-      <c r="L635" s="2" t="inlineStr">
+      <c r="L635" s="5" t="inlineStr">
         <is>
           <t>j</t>
         </is>
       </c>
-      <c r="M635" s="2" t="n">
+      <c r="M635" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N635" s="2" t="n">
+      <c r="N635" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="O635" s="2" t="inlineStr">
+      <c r="O635" s="5" t="inlineStr">
         <is>
           <t>k</t>
         </is>
       </c>
-      <c r="P635" s="2" t="inlineStr">
+      <c r="P635" s="5" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="Q635" s="2" t="inlineStr">
+      <c r="Q635" s="5" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="R635" s="2" t="inlineStr"/>
+      <c r="R635" s="5" t="inlineStr"/>
     </row>
     <row r="636">
       <c r="A636" s="3" t="inlineStr"/>

--- a/inputs/AddictO_Human-being_Defs.xlsx
+++ b/inputs/AddictO_Human-being_Defs.xlsx
@@ -599,7 +599,11 @@
       <c r="R2" s="2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="inlineStr"/>
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
           <t>African American</t>
@@ -626,7 +630,11 @@
         <v>0</v>
       </c>
       <c r="O3" s="3" t="inlineStr"/>
-      <c r="P3" s="3" t="inlineStr"/>
+      <c r="P3" s="3" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
       <c r="Q3" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>

--- a/inputs/AddictO_Human-being_Defs.xlsx
+++ b/inputs/AddictO_Human-being_Defs.xlsx
@@ -599,11 +599,7 @@
       <c r="R2" s="2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
+      <c r="A3" s="3" t="inlineStr"/>
       <c r="B3" s="3" t="inlineStr">
         <is>
           <t>African American</t>
